--- a/Descargas/R15_1º Juzgado Civil De San Miguel_Ingresos_2020-Febrero.xlsx
+++ b/Descargas/R15_1º Juzgado Civil De San Miguel_Ingresos_2020-Febrero.xlsx
@@ -231,7 +231,7 @@
         </is>
       </c>
       <c r="B3" s="65">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -241,7 +241,7 @@
         </is>
       </c>
       <c r="B4" s="65">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -251,13 +251,13 @@
         </is>
       </c>
       <c r="B5" s="65">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c t="inlineStr" r="A6">
         <is>
-          <t xml:space="preserve">Arrendam.terminación Inmediata Por No Pago Rentas O Reconven</t>
+          <t xml:space="preserve">Arrendamiento, Indemnización De Perjuicios</t>
         </is>
       </c>
       <c r="B6" s="65">
@@ -271,7 +271,7 @@
         </is>
       </c>
       <c r="B7" s="65">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -301,7 +301,7 @@
         </is>
       </c>
       <c r="B10" s="65">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -311,7 +311,7 @@
         </is>
       </c>
       <c r="B11" s="65">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -331,7 +331,7 @@
         </is>
       </c>
       <c r="B13" s="65">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -341,113 +341,113 @@
         </is>
       </c>
       <c r="B14" s="65">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c t="inlineStr" r="A15">
         <is>
-          <t xml:space="preserve">Cheque, Notificación Protesto</t>
+          <t xml:space="preserve">Cerramiento, Acción De</t>
         </is>
       </c>
       <c r="B15" s="65">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c t="inlineStr" r="A16">
         <is>
-          <t xml:space="preserve">Comodato Precario</t>
+          <t xml:space="preserve">Cheque, Notificación Protesto</t>
         </is>
       </c>
       <c r="B16" s="65">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
       <c t="inlineStr" r="A17">
         <is>
-          <t xml:space="preserve">Confesión De Deuda, Citación</t>
+          <t xml:space="preserve">Cobro De Gastos Comunes</t>
         </is>
       </c>
       <c r="B17" s="65">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c t="inlineStr" r="A18">
         <is>
-          <t xml:space="preserve">Contrato, Cumplimiento De</t>
+          <t xml:space="preserve">Comodato Precario</t>
         </is>
       </c>
       <c r="B18" s="65">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c t="inlineStr" r="A19">
         <is>
-          <t xml:space="preserve">Contrato, Nulidad De</t>
+          <t xml:space="preserve">Confesión De Deuda, Citación</t>
         </is>
       </c>
       <c r="B19" s="65">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
       <c t="inlineStr" r="A20">
         <is>
-          <t xml:space="preserve">Demencia C/Certificado Compin, Interdicción Por</t>
+          <t xml:space="preserve">Contrato, Nulidad De</t>
         </is>
       </c>
       <c r="B20" s="65">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c t="inlineStr" r="A21">
         <is>
-          <t xml:space="preserve">Demencia S/Cert. Compin, Interdicción Por</t>
+          <t xml:space="preserve">Contrato, Resolución De</t>
         </is>
       </c>
       <c r="B21" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c t="inlineStr" r="A22">
         <is>
-          <t xml:space="preserve">Factura, Notificación De</t>
+          <t xml:space="preserve">Crédito, Extravío De Título</t>
         </is>
       </c>
       <c r="B22" s="65">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c t="inlineStr" r="A23">
         <is>
-          <t xml:space="preserve">Hacienda,Proced.cuantía Superior Art.. 749 C.p.c</t>
+          <t xml:space="preserve">Demencia C/Certificado Compin, Interdicción Por</t>
         </is>
       </c>
       <c r="B23" s="65">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
       <c t="inlineStr" r="A24">
         <is>
-          <t xml:space="preserve">Hipotecaria, Acción Según Ley De Bancos</t>
+          <t xml:space="preserve">Demencia S/Cert. Compin, Interdicción Por</t>
         </is>
       </c>
       <c r="B24" s="65">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c t="inlineStr" r="A25">
         <is>
-          <t xml:space="preserve">Indemnización Ley De Propiedad Intelectual</t>
+          <t xml:space="preserve">Desposeimiento, Acción De</t>
         </is>
       </c>
       <c r="B25" s="65">
@@ -457,7 +457,7 @@
     <row r="26">
       <c t="inlineStr" r="A26">
         <is>
-          <t xml:space="preserve">Letra De Cambio, Cobro De</t>
+          <t xml:space="preserve">Desposeimiento, Notificación De</t>
         </is>
       </c>
       <c r="B26" s="65">
@@ -467,220 +467,290 @@
     <row r="27">
       <c t="inlineStr" r="A27">
         <is>
-          <t xml:space="preserve">Liquidación Voluntaria Empresa Deudora</t>
+          <t xml:space="preserve">Factura, Notificación De</t>
         </is>
       </c>
       <c r="B27" s="65">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
       <c t="inlineStr" r="A28">
         <is>
-          <t xml:space="preserve">Liquidación Voluntaria Persona Natural</t>
+          <t xml:space="preserve">Hipotecaria, Acción Según Ley De Bancos</t>
         </is>
       </c>
       <c r="B28" s="65">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
       <c t="inlineStr" r="A29">
         <is>
-          <t xml:space="preserve">Mutuo, Cobro Ejecutivo De</t>
+          <t xml:space="preserve">Honorarios, Cobro De (En Juicio)</t>
         </is>
       </c>
       <c r="B29" s="65">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c t="inlineStr" r="A30">
         <is>
-          <t xml:space="preserve">Nombre, Autorización Cambio De</t>
+          <t xml:space="preserve">Liquidación Forzosa Empresa Deudora</t>
         </is>
       </c>
       <c r="B30" s="65">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c t="inlineStr" r="A31">
         <is>
-          <t xml:space="preserve">Obligación De Dar, Cumplimiento</t>
+          <t xml:space="preserve">Liquidación Voluntaria Empresa Deudora</t>
         </is>
       </c>
       <c r="B31" s="65">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
       <c t="inlineStr" r="A32">
         <is>
-          <t xml:space="preserve">Otros Ordinarios</t>
+          <t xml:space="preserve">Liquidación Voluntaria Persona Natural</t>
         </is>
       </c>
       <c r="B32" s="65">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33">
       <c t="inlineStr" r="A33">
         <is>
-          <t xml:space="preserve">Otros Sumarios</t>
+          <t xml:space="preserve">Medida Prejudicial Precautoria</t>
         </is>
       </c>
       <c r="B33" s="65">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c t="inlineStr" r="A34">
         <is>
-          <t xml:space="preserve">Otros Voluntarios</t>
+          <t xml:space="preserve">Muerte Presunta</t>
         </is>
       </c>
       <c r="B34" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
       <c t="inlineStr" r="A35">
         <is>
-          <t xml:space="preserve">Pagaré, Cobro De</t>
+          <t xml:space="preserve">Mutuo, Cobro Ejecutivo De</t>
         </is>
       </c>
       <c r="B35" s="65">
-        <v>531</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
       <c t="inlineStr" r="A36">
         <is>
-          <t xml:space="preserve">Pagaré, Cobro De</t>
+          <t xml:space="preserve">Nombre, Autorización Cambio De</t>
         </is>
       </c>
       <c r="B36" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
       <c t="inlineStr" r="A37">
         <is>
-          <t xml:space="preserve">Pagaré, Notificación De Protesto</t>
+          <t xml:space="preserve">Obligación De Dar, Cumplimiento</t>
         </is>
       </c>
       <c r="B37" s="65">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38">
       <c t="inlineStr" r="A38">
         <is>
-          <t xml:space="preserve">Perjuicios, Indemnización De</t>
+          <t xml:space="preserve">Oposición Regularización Posesión D.l. 2.695</t>
         </is>
       </c>
       <c r="B38" s="65">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c t="inlineStr" r="A39">
         <is>
-          <t xml:space="preserve">Pesos, Cobro De</t>
+          <t xml:space="preserve">Otros Ejecutivos</t>
         </is>
       </c>
       <c r="B39" s="65">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
       <c t="inlineStr" r="A40">
         <is>
-          <t xml:space="preserve">Pesos, Cobro Según Art.680 Nº7 Cpc</t>
+          <t xml:space="preserve">Otros Ordinarios</t>
         </is>
       </c>
       <c r="B40" s="65">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c t="inlineStr" r="A41">
         <is>
-          <t xml:space="preserve">Posesión Efectiva</t>
+          <t xml:space="preserve">Otros Sumarios</t>
         </is>
       </c>
       <c r="B41" s="65">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42">
       <c t="inlineStr" r="A42">
         <is>
-          <t xml:space="preserve">Precario, Inc. 2º Art. 2.195 C.c</t>
+          <t xml:space="preserve">Otros Voluntarios</t>
         </is>
       </c>
       <c r="B42" s="65">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
       <c t="inlineStr" r="A43">
         <is>
-          <t xml:space="preserve">Prenda Sin Desplazamiento, Ley 20.190</t>
+          <t xml:space="preserve">Pagaré, Cobro De</t>
         </is>
       </c>
       <c r="B43" s="65">
-        <v>2</v>
+        <v>562</v>
       </c>
     </row>
     <row r="44">
       <c t="inlineStr" r="A44">
         <is>
-          <t xml:space="preserve">Prescrip.extinción De Acciones, Adquisición De Derechos Y Ot</t>
+          <t xml:space="preserve">Pagaré, Notificación De Protesto</t>
         </is>
       </c>
       <c r="B44" s="65">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45">
       <c t="inlineStr" r="A45">
         <is>
-          <t xml:space="preserve">Reconocimiento Firma,Citación Y Confesión De Deuda</t>
+          <t xml:space="preserve">Perjuicios, Indemnización De</t>
         </is>
       </c>
       <c r="B45" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c t="inlineStr" r="A46">
         <is>
-          <t xml:space="preserve">Registro Civil, Rectificación Partidas</t>
+          <t xml:space="preserve">Pesos, Cobro De</t>
         </is>
       </c>
       <c r="B46" s="65">
-        <v>1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47">
       <c t="inlineStr" r="A47">
         <is>
-          <t xml:space="preserve">Sentencia Penal Condenatoria</t>
+          <t xml:space="preserve">Pesos, Cobro Según Art.680 Nº7 Cpc</t>
         </is>
       </c>
       <c r="B47" s="65">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48">
       <c t="inlineStr" r="A48">
         <is>
-          <t xml:space="preserve">Testamento, Apertura Y Protocolización</t>
+          <t xml:space="preserve">Posesión Efectiva</t>
         </is>
       </c>
       <c r="B48" s="65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c t="inlineStr" r="A49">
+        <is>
+          <t xml:space="preserve">Precario, Inc. 2º Art. 2.195 C.c</t>
+        </is>
+      </c>
+      <c r="B49" s="65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c t="inlineStr" r="A50">
+        <is>
+          <t xml:space="preserve">Prenda Sin Desplazamiento, Ley 20.190</t>
+        </is>
+      </c>
+      <c r="B50" s="65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c t="inlineStr" r="A51">
+        <is>
+          <t xml:space="preserve">Prescrip.extinción De Acciones, Adquisición De Derechos Y Ot</t>
+        </is>
+      </c>
+      <c r="B51" s="65">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52">
+      <c t="inlineStr" r="A52">
+        <is>
+          <t xml:space="preserve">Reconocimiento De Firma, Citación</t>
+        </is>
+      </c>
+      <c r="B52" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c t="inlineStr" r="A53">
+        <is>
+          <t xml:space="preserve">Reconocimiento Firma,Citación Y Confesión De Deuda</t>
+        </is>
+      </c>
+      <c r="B53" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c t="inlineStr" r="A54">
+        <is>
+          <t xml:space="preserve">Reconvención De Pago, Proced.arrendam.</t>
+        </is>
+      </c>
+      <c r="B54" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c t="inlineStr" r="A55">
+        <is>
+          <t xml:space="preserve">Registro Civil, Rectificación Partidas</t>
+        </is>
+      </c>
+      <c r="B55" s="65">
         <v>1</v>
       </c>
     </row>
